--- a/Analytics/F1/ligueone_shirts_f1.xlsx
+++ b/Analytics/F1/ligueone_shirts_f1.xlsx
@@ -76,67 +76,67 @@
     <t>18</t>
   </si>
   <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
     <t>Paris SG</t>
   </si>
   <si>
-    <t>Lorient</t>
+    <t>St Etienne</t>
   </si>
   <si>
     <t>Marseille</t>
   </si>
   <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("Tligueone_shirts")</t>
   </si>
   <si>
-    <t>SUM("Tligueone_shirts") / 34</t>
+    <t>SUM("Tligueone_shirts") / 10</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>1113.0</v>
+        <v>494.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>993.0</v>
+        <v>433.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>878.0</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>872.0</v>
+        <v>409.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>840.0</v>
+        <v>383.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>827.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>820.0</v>
+        <v>371.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>791.0</v>
+        <v>357.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>771.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>770.0</v>
+        <v>350.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>759.0</v>
+        <v>274.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>721.0</v>
+        <v>271.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>687.0</v>
+        <v>253.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>652.0</v>
+        <v>246.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>633.0</v>
+        <v>244.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>607.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>594.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>540.0</v>
+        <v>74.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>1093.0</v>
+        <v>603.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>1049.0</v>
+        <v>489.0</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +443,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>1027.0</v>
+        <v>478.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>975.0</v>
+        <v>467.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>827.0</v>
+        <v>401.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>807.0</v>
+        <v>384.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>802.0</v>
+        <v>365.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>782.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>751.0</v>
+        <v>322.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>701.0</v>
+        <v>269.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>694.0</v>
+        <v>269.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>671.0</v>
+        <v>224.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>660.0</v>
+        <v>199.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
-        <v>654.0</v>
+        <v>184.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>615.0</v>
+        <v>172.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>597.0</v>
+        <v>149.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>592.0</v>
+        <v>140.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>571.0</v>
+        <v>108.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>2020.0</v>
+        <v>974.0</v>
       </c>
       <c r="D2" t="n">
-        <v>59.411764705882355</v>
+        <v>97.4</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>1889.0</v>
+        <v>900.0</v>
       </c>
       <c r="D3" t="n">
-        <v>55.55882352941177</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="4">
@@ -672,13 +672,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>1853.0</v>
+        <v>840.0</v>
       </c>
       <c r="D4" t="n">
-        <v>54.5</v>
+        <v>84.0</v>
       </c>
     </row>
     <row r="5">
@@ -686,13 +686,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>1773.0</v>
+        <v>835.0</v>
       </c>
       <c r="D5" t="n">
-        <v>52.14705882352941</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>1633.0</v>
+        <v>809.0</v>
       </c>
       <c r="D6" t="n">
-        <v>48.029411764705884</v>
+        <v>80.9</v>
       </c>
     </row>
     <row r="7">
@@ -717,10 +717,10 @@
         <v>26</v>
       </c>
       <c r="C7" t="n">
-        <v>1622.0</v>
+        <v>722.0</v>
       </c>
       <c r="D7" t="n">
-        <v>47.705882352941174</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>1586.0</v>
+        <v>715.0</v>
       </c>
       <c r="D8" t="n">
-        <v>46.64705882352941</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" t="n">
-        <v>1528.0</v>
+        <v>647.0</v>
       </c>
       <c r="D9" t="n">
-        <v>44.94117647058823</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>1526.0</v>
+        <v>634.0</v>
       </c>
       <c r="D10" t="n">
-        <v>44.88235294117647</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>1485.0</v>
+        <v>633.0</v>
       </c>
       <c r="D11" t="n">
-        <v>43.6764705882353</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>1438.0</v>
+        <v>567.0</v>
       </c>
       <c r="D12" t="n">
-        <v>42.294117647058826</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>1414.0</v>
+        <v>522.0</v>
       </c>
       <c r="D13" t="n">
-        <v>41.588235294117645</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>1392.0</v>
+        <v>513.0</v>
       </c>
       <c r="D14" t="n">
-        <v>40.94117647058823</v>
+        <v>51.3</v>
       </c>
     </row>
     <row r="15">
@@ -829,10 +829,10 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>1376.0</v>
+        <v>454.0</v>
       </c>
       <c r="D15" t="n">
-        <v>40.470588235294116</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>1367.0</v>
+        <v>443.0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.205882352941174</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>1342.0</v>
+        <v>382.0</v>
       </c>
       <c r="D17" t="n">
-        <v>39.470588235294116</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
-        <v>1248.0</v>
+        <v>285.0</v>
       </c>
       <c r="D18" t="n">
-        <v>36.705882352941174</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>1244.0</v>
+        <v>273.0</v>
       </c>
       <c r="D19" t="n">
-        <v>36.588235294117645</v>
+        <v>27.3</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/F1/ligueone_shirts_f1.xlsx
+++ b/Analytics/F1/ligueone_shirts_f1.xlsx
@@ -76,58 +76,58 @@
     <t>18</t>
   </si>
   <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
     <t>Lyon</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
     <t>Le Havre</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
     <t>Brest</t>
   </si>
   <si>
+    <t>Marseille</t>
+  </si>
+  <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
     <t>St Etienne</t>
   </si>
   <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
     <t>Reims</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
     <t>Monaco</t>
   </si>
   <si>
     <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lens</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -204,7 +204,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>494.0</v>
+        <v>656.0</v>
       </c>
     </row>
     <row r="3">
@@ -215,7 +215,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="n">
-        <v>433.0</v>
+        <v>638.0</v>
       </c>
     </row>
     <row r="4">
@@ -226,7 +226,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>425.0</v>
+        <v>606.0</v>
       </c>
     </row>
     <row r="5">
@@ -237,7 +237,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>409.0</v>
+        <v>556.0</v>
       </c>
     </row>
     <row r="6">
@@ -248,7 +248,7 @@
         <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>383.0</v>
+        <v>551.0</v>
       </c>
     </row>
     <row r="7">
@@ -259,7 +259,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>371.0</v>
+        <v>523.0</v>
       </c>
     </row>
     <row r="8">
@@ -270,7 +270,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="n">
-        <v>371.0</v>
+        <v>504.0</v>
       </c>
     </row>
     <row r="9">
@@ -281,7 +281,7 @@
         <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>357.0</v>
+        <v>498.0</v>
       </c>
     </row>
     <row r="10">
@@ -292,7 +292,7 @@
         <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>351.0</v>
+        <v>450.0</v>
       </c>
     </row>
     <row r="11">
@@ -303,7 +303,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>350.0</v>
+        <v>398.0</v>
       </c>
     </row>
     <row r="12">
@@ -314,7 +314,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>274.0</v>
+        <v>385.0</v>
       </c>
     </row>
     <row r="13">
@@ -325,7 +325,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>271.0</v>
+        <v>384.0</v>
       </c>
     </row>
     <row r="14">
@@ -336,7 +336,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>253.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="15">
@@ -347,7 +347,7 @@
         <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>246.0</v>
+        <v>341.0</v>
       </c>
     </row>
     <row r="16">
@@ -358,7 +358,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>244.0</v>
+        <v>329.0</v>
       </c>
     </row>
     <row r="17">
@@ -369,7 +369,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>136.0</v>
+        <v>303.0</v>
       </c>
     </row>
     <row r="18">
@@ -380,7 +380,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>132.0</v>
+        <v>257.0</v>
       </c>
     </row>
     <row r="19">
@@ -391,7 +391,7 @@
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>74.0</v>
+        <v>237.0</v>
       </c>
     </row>
   </sheetData>
@@ -421,10 +421,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>603.0</v>
+        <v>686.0</v>
       </c>
     </row>
     <row r="3">
@@ -432,10 +432,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
-        <v>489.0</v>
+        <v>655.0</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>478.0</v>
+        <v>623.0</v>
       </c>
     </row>
     <row r="5">
@@ -454,10 +454,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>467.0</v>
+        <v>587.0</v>
       </c>
     </row>
     <row r="6">
@@ -465,10 +465,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>401.0</v>
+        <v>585.0</v>
       </c>
     </row>
     <row r="7">
@@ -476,10 +476,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>384.0</v>
+        <v>518.0</v>
       </c>
     </row>
     <row r="8">
@@ -487,10 +487,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>365.0</v>
+        <v>490.0</v>
       </c>
     </row>
     <row r="9">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>351.0</v>
+        <v>489.0</v>
       </c>
     </row>
     <row r="10">
@@ -509,10 +509,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>322.0</v>
+        <v>447.0</v>
       </c>
     </row>
     <row r="11">
@@ -520,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>269.0</v>
+        <v>401.0</v>
       </c>
     </row>
     <row r="12">
@@ -531,10 +531,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>269.0</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="13">
@@ -542,10 +542,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>224.0</v>
+        <v>372.0</v>
       </c>
     </row>
     <row r="14">
@@ -553,10 +553,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>199.0</v>
+        <v>351.0</v>
       </c>
     </row>
     <row r="15">
@@ -564,10 +564,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>184.0</v>
+        <v>315.0</v>
       </c>
     </row>
     <row r="16">
@@ -575,10 +575,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>172.0</v>
+        <v>289.0</v>
       </c>
     </row>
     <row r="17">
@@ -586,10 +586,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>149.0</v>
+        <v>288.0</v>
       </c>
     </row>
     <row r="18">
@@ -597,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C18" t="n">
-        <v>140.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="19">
@@ -608,10 +608,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
-        <v>108.0</v>
+        <v>226.0</v>
       </c>
     </row>
   </sheetData>
@@ -644,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>974.0</v>
+        <v>1193.0</v>
       </c>
       <c r="D2" t="n">
-        <v>97.4</v>
+        <v>119.3</v>
       </c>
     </row>
     <row r="3">
@@ -658,13 +658,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>900.0</v>
+        <v>1146.0</v>
       </c>
       <c r="D3" t="n">
-        <v>90.0</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="4">
@@ -675,10 +675,10 @@
         <v>28</v>
       </c>
       <c r="C4" t="n">
-        <v>840.0</v>
+        <v>1136.0</v>
       </c>
       <c r="D4" t="n">
-        <v>84.0</v>
+        <v>113.6</v>
       </c>
     </row>
     <row r="5">
@@ -689,10 +689,10 @@
         <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>835.0</v>
+        <v>1121.0</v>
       </c>
       <c r="D5" t="n">
-        <v>83.5</v>
+        <v>112.1</v>
       </c>
     </row>
     <row r="6">
@@ -700,13 +700,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
-        <v>809.0</v>
+        <v>1053.0</v>
       </c>
       <c r="D6" t="n">
-        <v>80.9</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="7">
@@ -714,13 +714,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>722.0</v>
+        <v>1041.0</v>
       </c>
       <c r="D7" t="n">
-        <v>72.2</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="8">
@@ -728,13 +728,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>715.0</v>
+        <v>1003.0</v>
       </c>
       <c r="D8" t="n">
-        <v>71.5</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="9">
@@ -742,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>647.0</v>
+        <v>926.0</v>
       </c>
       <c r="D9" t="n">
-        <v>64.7</v>
+        <v>92.6</v>
       </c>
     </row>
     <row r="10">
@@ -756,13 +756,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>634.0</v>
+        <v>926.0</v>
       </c>
       <c r="D10" t="n">
-        <v>63.4</v>
+        <v>92.6</v>
       </c>
     </row>
     <row r="11">
@@ -770,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>633.0</v>
+        <v>905.0</v>
       </c>
       <c r="D11" t="n">
-        <v>63.3</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="12">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>567.0</v>
+        <v>888.0</v>
       </c>
       <c r="D12" t="n">
-        <v>56.7</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="13">
@@ -798,13 +798,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>522.0</v>
+        <v>873.0</v>
       </c>
       <c r="D13" t="n">
-        <v>52.2</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="14">
@@ -812,13 +812,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>513.0</v>
+        <v>736.0</v>
       </c>
       <c r="D14" t="n">
-        <v>51.3</v>
+        <v>73.6</v>
       </c>
     </row>
     <row r="15">
@@ -826,13 +826,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>454.0</v>
+        <v>644.0</v>
       </c>
       <c r="D15" t="n">
-        <v>45.4</v>
+        <v>64.4</v>
       </c>
     </row>
     <row r="16">
@@ -840,13 +840,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>443.0</v>
+        <v>640.0</v>
       </c>
       <c r="D16" t="n">
-        <v>44.3</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>382.0</v>
+        <v>609.0</v>
       </c>
       <c r="D17" t="n">
-        <v>38.2</v>
+        <v>60.9</v>
       </c>
     </row>
     <row r="18">
@@ -868,13 +868,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>285.0</v>
+        <v>567.0</v>
       </c>
       <c r="D18" t="n">
-        <v>28.5</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="19">
@@ -882,13 +882,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>273.0</v>
+        <v>527.0</v>
       </c>
       <c r="D19" t="n">
-        <v>27.3</v>
+        <v>52.7</v>
       </c>
     </row>
   </sheetData>
